--- a/example_data/example_data1trunc.en.xlsx
+++ b/example_data/example_data1trunc.en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdr273/doc-edna-tool-guide/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F05140-6A7A-EF41-9F29-97829544CAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979F3723-F262-C847-A4DF-FC5688F12DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29920" windowHeight="18660" activeTab="1" xr2:uid="{A71D9F63-A05D-0B42-B9B0-1902D799A659}"/>
+    <workbookView xWindow="10640" yWindow="5320" windowWidth="29920" windowHeight="18660" activeTab="3" xr2:uid="{A71D9F63-A05D-0B42-B9B0-1902D799A659}"/>
   </bookViews>
   <sheets>
     <sheet name="OTU_table" sheetId="1" r:id="rId1"/>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE51FA6-FDC1-C849-8BE1-0F90841A6D9E}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="A1:J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,12 +996,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73708D4D-E6C2-A347-9F42-4980BDC24EB9}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="2" width="79" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
